--- a/Shiny/Dati/L'azoto di Lord Rayleigh.xlsx
+++ b/Shiny/Dati/L'azoto di Lord Rayleigh.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MODUNIVAR\Shiny\Dati\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97003465-B4BB-462D-9E60-1C30EF7B6FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,14 +36,14 @@
     <t>N2O</t>
   </si>
   <si>
-    <t>Azoto (g)</t>
+    <t>Azoto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,23 +354,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -372,7 +378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -380,7 +386,7 @@
         <v>2.3100999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -388,7 +394,7 @@
         <v>2.3100100000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -396,7 +402,7 @@
         <v>2.3102399999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -404,7 +410,7 @@
         <v>2.3100999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -412,7 +418,7 @@
         <v>2.3102800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -420,7 +426,7 @@
         <v>2.2989000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -428,7 +434,7 @@
         <v>2.2981600000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -436,7 +442,7 @@
         <v>2.3018200000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -444,7 +450,7 @@
         <v>2.2986900000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
